--- a/data/doctor_schedules.xlsx
+++ b/data/doctor_schedules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="doctors" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="schedules" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="doctors" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="schedules" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16805,7 +16805,7 @@
         <v>30</v>
       </c>
       <c r="I338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J338" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>30</v>
       </c>
       <c r="I339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J339" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>30</v>
       </c>
       <c r="I340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J340" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>30</v>
       </c>
       <c r="I341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J341" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>30</v>
       </c>
       <c r="I342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J342" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>30</v>
       </c>
       <c r="I343" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J343" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>30</v>
       </c>
       <c r="I344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J344" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>30</v>
       </c>
       <c r="I345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J345" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>30</v>
       </c>
       <c r="I346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J346" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>30</v>
       </c>
       <c r="I347" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J347" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>30</v>
       </c>
       <c r="I348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J348" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>30</v>
       </c>
       <c r="I349" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J349" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>30</v>
       </c>
       <c r="I350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J350" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>30</v>
       </c>
       <c r="I351" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J351" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>30</v>
       </c>
       <c r="I352" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J352" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>30</v>
       </c>
       <c r="I353" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J353" t="inlineStr">
         <is>
@@ -17573,7 +17573,7 @@
         <v>30</v>
       </c>
       <c r="I354" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J354" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>30</v>
       </c>
       <c r="I355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J355" t="inlineStr">
         <is>
@@ -17669,7 +17669,7 @@
         <v>30</v>
       </c>
       <c r="I356" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J356" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>30</v>
       </c>
       <c r="I357" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J357" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>30</v>
       </c>
       <c r="I358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J358" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
         <v>30</v>
       </c>
       <c r="I359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J359" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>30</v>
       </c>
       <c r="I360" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J360" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>30</v>
       </c>
       <c r="I361" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J361" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>30</v>
       </c>
       <c r="I362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J362" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>30</v>
       </c>
       <c r="I363" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J363" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>30</v>
       </c>
       <c r="I364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J364" t="inlineStr">
         <is>
